--- a/DATA_goal/Junction_Flooding_168.xlsx
+++ b/DATA_goal/Junction_Flooding_168.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41600.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.37</v>
+        <v>4.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>230.71</v>
+        <v>23.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.5</v>
+        <v>4.35</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41600.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>36.25</v>
+        <v>3.62</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41600.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.37</v>
+        <v>10.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.58</v>
+        <v>2.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41600.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.44</v>
+        <v>2.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.9</v>
+        <v>5.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.77</v>
+        <v>4.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.17</v>
+        <v>6.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.45</v>
+        <v>2.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.09</v>
+        <v>2.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>271.94</v>
+        <v>27.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.25</v>
+        <v>5.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.46</v>
+        <v>3.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.69</v>
+        <v>3.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.83</v>
+        <v>6.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41600.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>70.54000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.91</v>
-      </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>23.48</v>
+        <v>2.35</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41600.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>29.41</v>
+        <v>2.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>108.25</v>
+        <v>10.83</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>21.19</v>
+        <v>2.12</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>26.51</v>
+        <v>2.65</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41600.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41600.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.88</v>
+        <v>3.49</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.65</v>
+        <v>2.86</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>45.19</v>
+        <v>4.52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>183.79</v>
+        <v>18.38</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>34.99</v>
+        <v>3.5</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.56</v>
+        <v>2.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>40.75</v>
+        <v>4.08</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41600.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.29</v>
+        <v>4.43</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.45</v>
+        <v>3.64</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>61.34</v>
+        <v>6.13</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.67</v>
+        <v>2.47</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.74</v>
+        <v>2.27</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>235.32</v>
+        <v>23.53</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.57</v>
+        <v>4.46</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.07</v>
+        <v>3.01</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>55.73</v>
+        <v>5.57</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_168.xlsx
+++ b/DATA_goal/Junction_Flooding_168.xlsx
@@ -449,9 +449,9 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44849.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44849.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.75</v>
+        <v>37.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.98</v>
+        <v>29.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.98</v>
+        <v>49.84</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>37.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.53</v>
+        <v>25.31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.55</v>
+        <v>45.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44849.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.83</v>
+        <v>38.34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.57</v>
+        <v>135.75</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.5</v>
+        <v>35.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44849.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.7</v>
+        <v>47.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.82</v>
+        <v>38.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>5.84</v>
+        <v>58.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_168.xlsx
+++ b/DATA_goal/Junction_Flooding_168.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44849.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44849.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.08</v>
+        <v>17.078</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.56</v>
+        <v>12.559</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.54</v>
+        <v>37.536</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.8</v>
+        <v>29.804</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.32</v>
+        <v>13.317</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.84</v>
+        <v>49.837</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.91</v>
+        <v>20.911</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.137</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.13</v>
+        <v>13.127</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.02</v>
+        <v>15.023</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.12</v>
+        <v>16.115</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.13</v>
+        <v>4.126</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.02</v>
+        <v>19.015</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.75</v>
+        <v>11.748</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.343</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.795</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.68</v>
+        <v>198.684</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.81</v>
+        <v>37.811</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25</v>
+        <v>25.002</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.163</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.184</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.31</v>
+        <v>25.307</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.955</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.647</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.82</v>
+        <v>15.816</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.49</v>
+        <v>45.487</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.85</v>
+        <v>6.848</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44849.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.85</v>
+        <v>11.847</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.151</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.09</v>
+        <v>26.092</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.74</v>
+        <v>20.736</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.25</v>
+        <v>9.247</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.34</v>
+        <v>38.339</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.51</v>
+        <v>14.514</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.45</v>
+        <v>10.453</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.22</v>
+        <v>11.224</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.85</v>
+        <v>2.855</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.516</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.75</v>
+        <v>135.746</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>26.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.43</v>
+        <v>17.434</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.15</v>
+        <v>9.148999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.486</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.74</v>
+        <v>18.743</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.918</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>8.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11</v>
+        <v>10.996</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.01</v>
+        <v>35.014</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.75</v>
+        <v>4.752</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44849.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_168.xlsx
+++ b/DATA_goal/Junction_Flooding_168.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,103 +967,207 @@
         <v>44849.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.49</v>
+        <v>21.488</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.05</v>
+        <v>16.045</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.01</v>
+        <v>47.011</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.23</v>
+        <v>38.235</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.86</v>
+        <v>16.856</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.40000000000001</v>
+        <v>64.398</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.15</v>
+        <v>26.149</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.68</v>
+        <v>11.677</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.07</v>
+        <v>17.066</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.85</v>
+        <v>18.855</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.08</v>
+        <v>20.081</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.3</v>
+        <v>5.302</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.02</v>
+        <v>24.016</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.31</v>
+        <v>14.314</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.2</v>
+        <v>250.196</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.28</v>
+        <v>47.277</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.72</v>
+        <v>31.718</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.66</v>
+        <v>16.664</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.4</v>
+        <v>2.401</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>31.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.39</v>
+        <v>14.389</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.83</v>
+        <v>19.827</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.44</v>
+        <v>58.442</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.76</v>
+        <v>8.756</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44849.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_168.xlsx
+++ b/DATA_goal/Junction_Flooding_168.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,207 +967,103 @@
         <v>44849.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.488</v>
+        <v>21.49</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.045</v>
+        <v>16.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.268</v>
+        <v>1.27</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.011</v>
+        <v>47.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.235</v>
+        <v>38.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.856</v>
+        <v>16.86</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.398</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.149</v>
+        <v>26.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.677</v>
+        <v>11.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.066</v>
+        <v>17.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.855</v>
+        <v>18.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.081</v>
+        <v>20.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.302</v>
+        <v>5.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.918</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.016</v>
+        <v>24.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.314</v>
+        <v>14.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.196</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.277</v>
+        <v>47.28</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.616</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.718</v>
+        <v>31.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.664</v>
+        <v>16.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.401</v>
+        <v>2.4</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>31.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.794</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.389</v>
+        <v>14.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.827</v>
+        <v>19.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.442</v>
+        <v>58.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.756</v>
+        <v>8.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.524</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44849.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
